--- a/test-excels/mmmmmk5.xls.xlsx
+++ b/test-excels/mmmmmk5.xls.xlsx
@@ -30,7 +30,7 @@
     <t>материал</t>
   </si>
   <si>
-    <t>1 000 -1 999</t>
+    <t>500 -1 999</t>
   </si>
   <si>
     <t>2 000 -2 999</t>
